--- a/GCP/GCP_PG15_EnterprisePlus_rawReport/Sysbench_GCPPG15_enterpriseP.xlsx
+++ b/GCP/GCP_PG15_EnterprisePlus_rawReport/Sysbench_GCPPG15_enterpriseP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/GCP/GCP_PG15_EnterprisePlus_rawReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933766D3-7849-6944-8D9B-22C1813FC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855BF13-0C31-AB48-AB34-E01767B37ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="540" windowWidth="25020" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="3780" yWindow="500" windowWidth="25020" windowHeight="16020" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
